--- a/data/output/FV2404_FV2310/UTILMD/44103.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/44103.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="293">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="293">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -989,6 +989,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U133" totalsRowShown="0">
+  <autoFilter ref="A1:U133"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1278,7 +1308,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7816,5 +7849,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/44103.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/44103.xlsx
@@ -1804,7 +1804,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4118,7 +4118,7 @@
         <v>279</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4338,7 +4338,7 @@
         <v>280</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4558,7 +4558,7 @@
         <v>281</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4778,7 +4778,7 @@
         <v>281</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4998,7 +4998,7 @@
         <v>282</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5218,7 +5218,7 @@
         <v>283</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5380,7 +5380,7 @@
         <v>281</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5596,7 +5596,7 @@
         <v>284</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6000,7 +6000,7 @@
         <v>281</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6146,7 +6146,7 @@
         <v>286</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6408,7 +6408,7 @@
         <v>288</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6866,7 +6866,7 @@
         <v>290</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7178,7 +7178,7 @@
         <v>291</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7322,7 +7322,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8210,7 +8210,7 @@
         <v>293</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N131" s="2"/>
